--- a/team_specific_matrix/George Mason_A.xlsx
+++ b/team_specific_matrix/George Mason_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1587982832618026</v>
+        <v>0.1620689655172414</v>
       </c>
       <c r="C2">
-        <v>0.6223175965665236</v>
+        <v>0.6241379310344828</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0128755364806867</v>
+        <v>0.01379310344827586</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1287553648068669</v>
+        <v>0.1241379310344828</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07725321888412018</v>
+        <v>0.07586206896551724</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="C3">
-        <v>0.03311258278145696</v>
+        <v>0.03208556149732621</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03311258278145696</v>
+        <v>0.0267379679144385</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7483443708609272</v>
+        <v>0.7540106951871658</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1854304635761589</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02564102564102564</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6153846153846154</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.358974358974359</v>
+        <v>0.3469387755102041</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04166666666666666</v>
+        <v>0.05472636815920398</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02976190476190476</v>
+        <v>0.03482587064676617</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08928571428571429</v>
+        <v>0.09950248756218906</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2321428571428572</v>
+        <v>0.2338308457711443</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04166666666666666</v>
+        <v>0.03980099502487562</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1666666666666667</v>
+        <v>0.1641791044776119</v>
       </c>
       <c r="R6">
-        <v>0.07142857142857142</v>
+        <v>0.05970149253731343</v>
       </c>
       <c r="S6">
-        <v>0.3273809523809524</v>
+        <v>0.3134328358208955</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1292517006802721</v>
+        <v>0.1325301204819277</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02040816326530612</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="E7">
-        <v>0.006802721088435374</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="F7">
-        <v>0.04081632653061224</v>
+        <v>0.03614457831325301</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.108843537414966</v>
+        <v>0.108433734939759</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03401360544217687</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1496598639455782</v>
+        <v>0.1506024096385542</v>
       </c>
       <c r="R7">
-        <v>0.08163265306122448</v>
+        <v>0.09036144578313253</v>
       </c>
       <c r="S7">
-        <v>0.4285714285714285</v>
+        <v>0.4216867469879518</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09056603773584905</v>
+        <v>0.1</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.007547169811320755</v>
+        <v>0.00967741935483871</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0830188679245283</v>
+        <v>0.07419354838709677</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1094339622641509</v>
+        <v>0.1064516129032258</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01509433962264151</v>
+        <v>0.01290322580645161</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.169811320754717</v>
+        <v>0.167741935483871</v>
       </c>
       <c r="R8">
-        <v>0.1207547169811321</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="S8">
-        <v>0.4037735849056604</v>
+        <v>0.4161290322580645</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1111111111111111</v>
+        <v>0.116504854368932</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01754385964912281</v>
+        <v>0.01456310679611651</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05847953216374269</v>
+        <v>0.05339805825242718</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1286549707602339</v>
+        <v>0.1359223300970874</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01169590643274854</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1929824561403509</v>
+        <v>0.1844660194174757</v>
       </c>
       <c r="R9">
-        <v>0.08771929824561403</v>
+        <v>0.0970873786407767</v>
       </c>
       <c r="S9">
-        <v>0.391812865497076</v>
+        <v>0.3786407766990291</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1355932203389831</v>
+        <v>0.1356080489938758</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02966101694915254</v>
+        <v>0.02974628171478565</v>
       </c>
       <c r="E10">
-        <v>0.001059322033898305</v>
+        <v>0.0008748906386701663</v>
       </c>
       <c r="F10">
-        <v>0.07097457627118645</v>
+        <v>0.07436570428696412</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1101694915254237</v>
+        <v>0.1198600174978128</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01588983050847458</v>
+        <v>0.01487314085739283</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2277542372881356</v>
+        <v>0.2178477690288714</v>
       </c>
       <c r="R10">
-        <v>0.07733050847457627</v>
+        <v>0.07961504811898512</v>
       </c>
       <c r="S10">
-        <v>0.3315677966101695</v>
+        <v>0.3272090988626422</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1531531531531531</v>
+        <v>0.1411290322580645</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07207207207207207</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="K11">
-        <v>0.1801801801801802</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="L11">
-        <v>0.5900900900900901</v>
+        <v>0.6048387096774194</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.004504504504504504</v>
+        <v>0.01209677419354839</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7121212121212122</v>
+        <v>0.7133333333333334</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2121212121212121</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="K12">
-        <v>0.01515151515151515</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="L12">
-        <v>0.01515151515151515</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04545454545454546</v>
+        <v>0.04666666666666667</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7586206896551724</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2413793103448276</v>
+        <v>0.25</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.02777777777777778</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03571428571428571</v>
+        <v>0.03381642512077294</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.130952380952381</v>
+        <v>0.1207729468599034</v>
       </c>
       <c r="I15">
-        <v>0.05952380952380952</v>
+        <v>0.07246376811594203</v>
       </c>
       <c r="J15">
-        <v>0.3214285714285715</v>
+        <v>0.357487922705314</v>
       </c>
       <c r="K15">
-        <v>0.06547619047619048</v>
+        <v>0.05797101449275362</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02380952380952381</v>
+        <v>0.02415458937198068</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08928571428571429</v>
+        <v>0.07246376811594203</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2738095238095238</v>
+        <v>0.2608695652173913</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0124223602484472</v>
+        <v>0.015</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1118012422360248</v>
+        <v>0.105</v>
       </c>
       <c r="I16">
-        <v>0.1304347826086956</v>
+        <v>0.125</v>
       </c>
       <c r="J16">
-        <v>0.4099378881987578</v>
+        <v>0.405</v>
       </c>
       <c r="K16">
-        <v>0.124223602484472</v>
+        <v>0.12</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01863354037267081</v>
+        <v>0.02</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06211180124223602</v>
+        <v>0.06</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1304347826086956</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.008797653958944282</v>
+        <v>0.007594936708860759</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1495601173020528</v>
+        <v>0.1493670886075949</v>
       </c>
       <c r="I17">
-        <v>0.1114369501466276</v>
+        <v>0.1139240506329114</v>
       </c>
       <c r="J17">
-        <v>0.4868035190615836</v>
+        <v>0.4683544303797468</v>
       </c>
       <c r="K17">
-        <v>0.08797653958944282</v>
+        <v>0.08860759493670886</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01466275659824047</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0469208211143695</v>
+        <v>0.06582278481012659</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.093841642228739</v>
+        <v>0.09367088607594937</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02097902097902098</v>
+        <v>0.01744186046511628</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1678321678321678</v>
+        <v>0.1569767441860465</v>
       </c>
       <c r="I18">
-        <v>0.1118881118881119</v>
+        <v>0.1220930232558139</v>
       </c>
       <c r="J18">
-        <v>0.3986013986013986</v>
+        <v>0.4069767441860465</v>
       </c>
       <c r="K18">
-        <v>0.0979020979020979</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01398601398601399</v>
+        <v>0.01744186046511628</v>
       </c>
       <c r="N18">
-        <v>0.006993006993006993</v>
+        <v>0.005813953488372093</v>
       </c>
       <c r="O18">
-        <v>0.06293706293706294</v>
+        <v>0.06395348837209303</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1188811188811189</v>
+        <v>0.1162790697674419</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0192090395480226</v>
+        <v>0.01792452830188679</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1740112994350282</v>
+        <v>0.1726415094339623</v>
       </c>
       <c r="I19">
-        <v>0.09378531073446328</v>
+        <v>0.09150943396226414</v>
       </c>
       <c r="J19">
-        <v>0.3819209039548023</v>
+        <v>0.389622641509434</v>
       </c>
       <c r="K19">
-        <v>0.1175141242937853</v>
+        <v>0.1075471698113208</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01468926553672316</v>
+        <v>0.0160377358490566</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0009433962264150943</v>
       </c>
       <c r="O19">
-        <v>0.07344632768361582</v>
+        <v>0.07641509433962264</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1254237288135593</v>
+        <v>0.1273584905660377</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/George Mason_A.xlsx
+++ b/team_specific_matrix/George Mason_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1620689655172414</v>
+        <v>0.1583850931677019</v>
       </c>
       <c r="C2">
-        <v>0.6241379310344828</v>
+        <v>0.6211180124223602</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01379310344827586</v>
+        <v>0.01863354037267081</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1241379310344828</v>
+        <v>0.1180124223602484</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07586206896551724</v>
+        <v>0.08385093167701864</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0053475935828877</v>
+        <v>0.004807692307692308</v>
       </c>
       <c r="C3">
-        <v>0.03208556149732621</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0267379679144385</v>
+        <v>0.02884615384615385</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7540106951871658</v>
+        <v>0.7451923076923077</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1818181818181818</v>
+        <v>0.1826923076923077</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02040816326530612</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6326530612244898</v>
+        <v>0.6346153846153846</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3469387755102041</v>
+        <v>0.3461538461538461</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05472636815920398</v>
+        <v>0.05531914893617021</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03482587064676617</v>
+        <v>0.02978723404255319</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09950248756218906</v>
+        <v>0.09361702127659574</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2338308457711443</v>
+        <v>0.2340425531914894</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03980099502487562</v>
+        <v>0.03829787234042553</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1641791044776119</v>
+        <v>0.1531914893617021</v>
       </c>
       <c r="R6">
-        <v>0.05970149253731343</v>
+        <v>0.05531914893617021</v>
       </c>
       <c r="S6">
-        <v>0.3134328358208955</v>
+        <v>0.3404255319148936</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1325301204819277</v>
+        <v>0.1263736263736264</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02409638554216868</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="E7">
-        <v>0.006024096385542169</v>
+        <v>0.005494505494505495</v>
       </c>
       <c r="F7">
-        <v>0.03614457831325301</v>
+        <v>0.03296703296703297</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.108433734939759</v>
+        <v>0.1098901098901099</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03012048192771084</v>
+        <v>0.02747252747252747</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1506024096385542</v>
+        <v>0.1483516483516484</v>
       </c>
       <c r="R7">
-        <v>0.09036144578313253</v>
+        <v>0.08241758241758242</v>
       </c>
       <c r="S7">
-        <v>0.4216867469879518</v>
+        <v>0.445054945054945</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>0.1082621082621083</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.00967741935483871</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07419354838709677</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1064516129032258</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01290322580645161</v>
+        <v>0.0113960113960114</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.167741935483871</v>
+        <v>0.1595441595441595</v>
       </c>
       <c r="R8">
-        <v>0.1129032258064516</v>
+        <v>0.1054131054131054</v>
       </c>
       <c r="S8">
-        <v>0.4161290322580645</v>
+        <v>0.4273504273504273</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.116504854368932</v>
+        <v>0.1173913043478261</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01456310679611651</v>
+        <v>0.01304347826086956</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05339805825242718</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1359223300970874</v>
+        <v>0.1391304347826087</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01941747572815534</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1844660194174757</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="R9">
-        <v>0.0970873786407767</v>
+        <v>0.09130434782608696</v>
       </c>
       <c r="S9">
-        <v>0.3786407766990291</v>
+        <v>0.3782608695652174</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1356080489938758</v>
+        <v>0.1328125</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02974628171478565</v>
+        <v>0.02890625</v>
       </c>
       <c r="E10">
-        <v>0.0008748906386701663</v>
+        <v>0.00078125</v>
       </c>
       <c r="F10">
-        <v>0.07436570428696412</v>
+        <v>0.075</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1198600174978128</v>
+        <v>0.12421875</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01487314085739283</v>
+        <v>0.01640625</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2178477690288714</v>
+        <v>0.21640625</v>
       </c>
       <c r="R10">
-        <v>0.07961504811898512</v>
+        <v>0.07890625</v>
       </c>
       <c r="S10">
-        <v>0.3272090988626422</v>
+        <v>0.3265625</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1411290322580645</v>
+        <v>0.1347517730496454</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06451612903225806</v>
+        <v>0.07092198581560284</v>
       </c>
       <c r="K11">
-        <v>0.1774193548387097</v>
+        <v>0.173758865248227</v>
       </c>
       <c r="L11">
-        <v>0.6048387096774194</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01209677419354839</v>
+        <v>0.01418439716312057</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7133333333333334</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2133333333333333</v>
+        <v>0.2280701754385965</v>
       </c>
       <c r="K12">
-        <v>0.01333333333333333</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="L12">
-        <v>0.01333333333333333</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04666666666666667</v>
+        <v>0.04678362573099415</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7222222222222222</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.25</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02777777777777778</v>
+        <v>0.02631578947368421</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03381642512077294</v>
+        <v>0.03829787234042553</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1207729468599034</v>
+        <v>0.1191489361702128</v>
       </c>
       <c r="I15">
-        <v>0.07246376811594203</v>
+        <v>0.06808510638297872</v>
       </c>
       <c r="J15">
-        <v>0.357487922705314</v>
+        <v>0.3531914893617021</v>
       </c>
       <c r="K15">
-        <v>0.05797101449275362</v>
+        <v>0.05957446808510639</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02415458937198068</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07246376811594203</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2608695652173913</v>
+        <v>0.2553191489361702</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.015</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.105</v>
+        <v>0.1055045871559633</v>
       </c>
       <c r="I16">
-        <v>0.125</v>
+        <v>0.1284403669724771</v>
       </c>
       <c r="J16">
-        <v>0.405</v>
+        <v>0.3944954128440367</v>
       </c>
       <c r="K16">
-        <v>0.12</v>
+        <v>0.1284403669724771</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02</v>
+        <v>0.02293577981651376</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06</v>
+        <v>0.05963302752293578</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.15</v>
+        <v>0.1422018348623853</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.007594936708860759</v>
+        <v>0.009216589861751152</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1493670886075949</v>
+        <v>0.152073732718894</v>
       </c>
       <c r="I17">
-        <v>0.1139240506329114</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="J17">
-        <v>0.4683544303797468</v>
+        <v>0.4631336405529954</v>
       </c>
       <c r="K17">
-        <v>0.08860759493670886</v>
+        <v>0.09216589861751152</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01265822784810127</v>
+        <v>0.01152073732718894</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06582278481012659</v>
+        <v>0.05990783410138249</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09367088607594937</v>
+        <v>0.09907834101382489</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01744186046511628</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1569767441860465</v>
+        <v>0.1505376344086022</v>
       </c>
       <c r="I18">
-        <v>0.1220930232558139</v>
+        <v>0.1182795698924731</v>
       </c>
       <c r="J18">
-        <v>0.4069767441860465</v>
+        <v>0.4139784946236559</v>
       </c>
       <c r="K18">
-        <v>0.09302325581395349</v>
+        <v>0.09139784946236559</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01744186046511628</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="N18">
-        <v>0.005813953488372093</v>
+        <v>0.005376344086021506</v>
       </c>
       <c r="O18">
-        <v>0.06395348837209303</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1162790697674419</v>
+        <v>0.1075268817204301</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01792452830188679</v>
+        <v>0.01911886949293433</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1726415094339623</v>
+        <v>0.1753948462177889</v>
       </c>
       <c r="I19">
-        <v>0.09150943396226414</v>
+        <v>0.09310058187863675</v>
       </c>
       <c r="J19">
-        <v>0.389622641509434</v>
+        <v>0.3840399002493766</v>
       </c>
       <c r="K19">
-        <v>0.1075471698113208</v>
+        <v>0.1080631753948462</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0160377358490566</v>
+        <v>0.01496259351620948</v>
       </c>
       <c r="N19">
-        <v>0.0009433962264150943</v>
+        <v>0.0008312551953449709</v>
       </c>
       <c r="O19">
-        <v>0.07641509433962264</v>
+        <v>0.07813798836242726</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1273584905660377</v>
+        <v>0.1263507896924356</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/George Mason_A.xlsx
+++ b/team_specific_matrix/George Mason_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1583850931677019</v>
+        <v>0.1596385542168675</v>
       </c>
       <c r="C2">
-        <v>0.6211180124223602</v>
+        <v>0.6144578313253012</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01863354037267081</v>
+        <v>0.01807228915662651</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1180124223602484</v>
+        <v>0.1204819277108434</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08385093167701864</v>
+        <v>0.08734939759036145</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.004807692307692308</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="C3">
-        <v>0.03846153846153846</v>
+        <v>0.04225352112676056</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02884615384615385</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7451923076923077</v>
+        <v>0.7370892018779343</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1826923076923077</v>
+        <v>0.1877934272300469</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01923076923076923</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6346153846153846</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3461538461538461</v>
+        <v>0.3396226415094339</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05531914893617021</v>
+        <v>0.05857740585774059</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02978723404255319</v>
+        <v>0.02928870292887029</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09361702127659574</v>
+        <v>0.09205020920502092</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2340425531914894</v>
+        <v>0.2343096234309623</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03829787234042553</v>
+        <v>0.03765690376569038</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1531914893617021</v>
+        <v>0.1548117154811715</v>
       </c>
       <c r="R6">
-        <v>0.05531914893617021</v>
+        <v>0.05439330543933055</v>
       </c>
       <c r="S6">
-        <v>0.3404255319148936</v>
+        <v>0.3389121338912134</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1263736263736264</v>
+        <v>0.1204188481675393</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02197802197802198</v>
+        <v>0.02617801047120419</v>
       </c>
       <c r="E7">
-        <v>0.005494505494505495</v>
+        <v>0.005235602094240838</v>
       </c>
       <c r="F7">
-        <v>0.03296703296703297</v>
+        <v>0.03141361256544502</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1098901098901099</v>
+        <v>0.1151832460732984</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02747252747252747</v>
+        <v>0.02617801047120419</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1483516483516484</v>
+        <v>0.1518324607329843</v>
       </c>
       <c r="R7">
-        <v>0.08241758241758242</v>
+        <v>0.07853403141361257</v>
       </c>
       <c r="S7">
-        <v>0.445054945054945</v>
+        <v>0.4450261780104712</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1082621082621083</v>
+        <v>0.1058495821727019</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.008547008547008548</v>
+        <v>0.008356545961002786</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07692307692307693</v>
+        <v>0.07520891364902507</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1025641025641026</v>
+        <v>0.1002785515320334</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0113960113960114</v>
+        <v>0.01114206128133705</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1595441595441595</v>
+        <v>0.1587743732590529</v>
       </c>
       <c r="R8">
-        <v>0.1054131054131054</v>
+        <v>0.1086350974930362</v>
       </c>
       <c r="S8">
-        <v>0.4273504273504273</v>
+        <v>0.4317548746518106</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1173913043478261</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01304347826086956</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06956521739130435</v>
+        <v>0.06837606837606838</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1391304347826087</v>
+        <v>0.1367521367521368</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01739130434782609</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1739130434782609</v>
+        <v>0.1752136752136752</v>
       </c>
       <c r="R9">
-        <v>0.09130434782608696</v>
+        <v>0.08974358974358974</v>
       </c>
       <c r="S9">
-        <v>0.3782608695652174</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1328125</v>
+        <v>0.132629992464205</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02890625</v>
+        <v>0.02863602110022608</v>
       </c>
       <c r="E10">
-        <v>0.00078125</v>
+        <v>0.0007535795026375283</v>
       </c>
       <c r="F10">
-        <v>0.075</v>
+        <v>0.0746043707611153</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.12421875</v>
+        <v>0.1243406179351922</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01640625</v>
+        <v>0.01582516955538809</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.21640625</v>
+        <v>0.2155237377543331</v>
       </c>
       <c r="R10">
-        <v>0.07890625</v>
+        <v>0.08138658628485305</v>
       </c>
       <c r="S10">
-        <v>0.3265625</v>
+        <v>0.3262999246420497</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1347517730496454</v>
+        <v>0.1346801346801347</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07092198581560284</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="K11">
-        <v>0.173758865248227</v>
+        <v>0.1750841750841751</v>
       </c>
       <c r="L11">
-        <v>0.6063829787234043</v>
+        <v>0.6026936026936027</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01418439716312057</v>
+        <v>0.01346801346801347</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7017543859649122</v>
+        <v>0.6983240223463687</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2280701754385965</v>
+        <v>0.2290502793296089</v>
       </c>
       <c r="K12">
-        <v>0.01169590643274854</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="L12">
-        <v>0.01169590643274854</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04678362573099415</v>
+        <v>0.05027932960893855</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7368421052631579</v>
+        <v>0.7317073170731707</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2368421052631579</v>
+        <v>0.2439024390243902</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02631578947368421</v>
+        <v>0.02439024390243903</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03829787234042553</v>
+        <v>0.0371900826446281</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1191489361702128</v>
+        <v>0.1239669421487603</v>
       </c>
       <c r="I15">
-        <v>0.06808510638297872</v>
+        <v>0.06611570247933884</v>
       </c>
       <c r="J15">
-        <v>0.3531914893617021</v>
+        <v>0.359504132231405</v>
       </c>
       <c r="K15">
-        <v>0.05957446808510639</v>
+        <v>0.05785123966942149</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02127659574468085</v>
+        <v>0.02066115702479339</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0851063829787234</v>
+        <v>0.08264462809917356</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2553191489361702</v>
+        <v>0.2520661157024793</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01834862385321101</v>
+        <v>0.0179372197309417</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1055045871559633</v>
+        <v>0.1121076233183857</v>
       </c>
       <c r="I16">
-        <v>0.1284403669724771</v>
+        <v>0.1255605381165919</v>
       </c>
       <c r="J16">
-        <v>0.3944954128440367</v>
+        <v>0.3901345291479821</v>
       </c>
       <c r="K16">
-        <v>0.1284403669724771</v>
+        <v>0.1345291479820628</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02293577981651376</v>
+        <v>0.02242152466367713</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05963302752293578</v>
+        <v>0.05829596412556054</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1422018348623853</v>
+        <v>0.1390134529147982</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.009216589861751152</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.152073732718894</v>
+        <v>0.1473214285714286</v>
       </c>
       <c r="I17">
-        <v>0.1129032258064516</v>
+        <v>0.1138392857142857</v>
       </c>
       <c r="J17">
-        <v>0.4631336405529954</v>
+        <v>0.4709821428571428</v>
       </c>
       <c r="K17">
-        <v>0.09216589861751152</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01152073732718894</v>
+        <v>0.01116071428571429</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05990783410138249</v>
+        <v>0.06026785714285714</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09907834101382489</v>
+        <v>0.09821428571428571</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01612903225806452</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1505376344086022</v>
+        <v>0.1435897435897436</v>
       </c>
       <c r="I18">
-        <v>0.1182795698924731</v>
+        <v>0.1128205128205128</v>
       </c>
       <c r="J18">
-        <v>0.4139784946236559</v>
+        <v>0.4205128205128205</v>
       </c>
       <c r="K18">
-        <v>0.09139784946236559</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01612903225806452</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="N18">
-        <v>0.005376344086021506</v>
+        <v>0.005128205128205128</v>
       </c>
       <c r="O18">
-        <v>0.08064516129032258</v>
+        <v>0.08205128205128205</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1075268817204301</v>
+        <v>0.1128205128205128</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01911886949293433</v>
+        <v>0.01848874598070739</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1753948462177889</v>
+        <v>0.1728295819935691</v>
       </c>
       <c r="I19">
-        <v>0.09310058187863675</v>
+        <v>0.09163987138263666</v>
       </c>
       <c r="J19">
-        <v>0.3840399002493766</v>
+        <v>0.3826366559485531</v>
       </c>
       <c r="K19">
-        <v>0.1080631753948462</v>
+        <v>0.1117363344051447</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01496259351620948</v>
+        <v>0.01688102893890675</v>
       </c>
       <c r="N19">
-        <v>0.0008312551953449709</v>
+        <v>0.0008038585209003215</v>
       </c>
       <c r="O19">
-        <v>0.07813798836242726</v>
+        <v>0.07877813504823152</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1263507896924356</v>
+        <v>0.1262057877813505</v>
       </c>
     </row>
   </sheetData>
